--- a/tut05/output/0401EE23.xlsx
+++ b/tut05/output/0401EE23.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.081632653061224</v>
+        <v>8.08</v>
       </c>
       <c r="C6" t="n">
-        <v>7.409090909090909</v>
+        <v>7.41</v>
       </c>
       <c r="D6" t="n">
-        <v>7.956521739130435</v>
+        <v>7.96</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>7.384615384615385</v>
+        <v>7.38</v>
       </c>
       <c r="G6" t="n">
-        <v>7.175</v>
+        <v>7.17</v>
       </c>
       <c r="H6" t="n">
-        <v>8.465116279069768</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>9.157894736842104</v>
+        <v>9.16</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.081632653061224</v>
+        <v>8.08</v>
       </c>
       <c r="C8" t="n">
-        <v>7.763440860215054</v>
+        <v>7.76</v>
       </c>
       <c r="D8" t="n">
-        <v>7.827338129496403</v>
+        <v>7.83</v>
       </c>
       <c r="E8" t="n">
-        <v>7.870270270270271</v>
+        <v>7.87</v>
       </c>
       <c r="F8" t="n">
-        <v>7.785714285714286</v>
+        <v>7.79</v>
       </c>
       <c r="G8" t="n">
-        <v>7.693181818181818</v>
+        <v>7.69</v>
       </c>
       <c r="H8" t="n">
-        <v>7.801302931596092</v>
+        <v>7.8</v>
       </c>
       <c r="I8" t="n">
-        <v>7.95072463768116</v>
+        <v>7.95</v>
       </c>
     </row>
   </sheetData>
